--- a/config_Release/act_026_xrcdj_config.xlsx
+++ b/config_Release/act_026_xrcdj_config.xlsx
@@ -18,12 +18,12 @@
     <sheet name="award2|配置" sheetId="9" r:id="rId4"/>
     <sheet name="award3|配置" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -168,9 +168,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2000金币</t>
-  </si>
-  <si>
     <t>3000金币</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>11000金币</t>
   </si>
   <si>
-    <t>50万金币</t>
-  </si>
-  <si>
     <t>10元话费</t>
   </si>
   <si>
@@ -210,10 +204,6 @@
     <t>5000福利券</t>
   </si>
   <si>
-    <t>ty_icon_jb_2498y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_icon_jb_198y</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -240,72 +230,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>8元话费</t>
-  </si>
-  <si>
-    <t>6福利券</t>
-  </si>
-  <si>
-    <t>8福利券</t>
-  </si>
-  <si>
-    <t>10福利券</t>
-  </si>
-  <si>
     <t>20000金币</t>
   </si>
   <si>
-    <t>30福利券</t>
-  </si>
-  <si>
-    <t>4万金币</t>
-  </si>
-  <si>
-    <t>50福利券</t>
-  </si>
-  <si>
-    <t>60福利券</t>
-  </si>
-  <si>
-    <t>100万金币</t>
-  </si>
-  <si>
-    <t>8000福利券</t>
-  </si>
-  <si>
     <t>500元京东卡</t>
   </si>
   <si>
     <t>20福利券</t>
   </si>
   <si>
-    <t>40福利券</t>
-  </si>
-  <si>
-    <t>80福利券</t>
-  </si>
-  <si>
-    <t>100福利券</t>
-  </si>
-  <si>
-    <t>120福利券</t>
-  </si>
-  <si>
-    <t>150福利券</t>
-  </si>
-  <si>
-    <t>160福利券</t>
-  </si>
-  <si>
-    <t>170福利券</t>
-  </si>
-  <si>
-    <t>20元话费</t>
-  </si>
-  <si>
-    <t>50元话费</t>
-  </si>
-  <si>
     <t>100元话费</t>
   </si>
   <si>
@@ -317,22 +250,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_jb_30y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_icon_flq1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_2498y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_icon_jb_98y</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -345,23 +266,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_flq3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -609,10 +514,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>8万福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>com_award_icon_hfsp</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -621,11 +522,115 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>20福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>500福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>800福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_48y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_48y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>ty_icon_flq2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_flq2</t>
+    <t>1000福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100元话费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元话费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5元话费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>17万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_icon_gift_1000jdk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000福利券</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -633,7 +638,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_flq3</t>
+    <t>5000福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>千元京东卡</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1068,13 +1077,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>10</v>
@@ -1095,10 +1104,10 @@
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -1118,13 +1127,13 @@
         <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>15</v>
@@ -1144,13 +1153,13 @@
         <v>19</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>16</v>
@@ -1197,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1208,10 +1217,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1219,10 +1228,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1230,10 +1239,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1241,10 +1250,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1252,10 +1261,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1263,10 +1272,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1274,10 +1283,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1285,10 +1294,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1296,10 +1305,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1307,10 +1316,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1333,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1374,13 +1383,13 @@
         <v>-1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -1394,13 +1403,13 @@
         <v>-1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>20</v>
+      <c r="E3" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -1414,13 +1423,13 @@
         <v>11701</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -1434,13 +1443,13 @@
         <v>11702</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -1454,13 +1463,13 @@
         <v>-1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -1474,13 +1483,13 @@
         <v>11703</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -1494,13 +1503,13 @@
         <v>11704</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -1514,13 +1523,13 @@
         <v>-1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1534,13 +1543,13 @@
         <v>11705</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -1554,13 +1563,13 @@
         <v>11706</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -1574,13 +1583,13 @@
         <v>11707</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -1594,13 +1603,13 @@
         <v>-1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -1614,13 +1623,13 @@
         <v>11708</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -1640,13 +1649,13 @@
         <v>11709</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -1854,14 +1863,14 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
@@ -1905,13 +1914,13 @@
         <v>-1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -1925,13 +1934,13 @@
         <v>-1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>42</v>
+      <c r="E3" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -1945,13 +1954,13 @@
         <v>11710</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -1965,13 +1974,13 @@
         <v>11711</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -1985,13 +1994,13 @@
         <v>-1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -2005,13 +2014,13 @@
         <v>11712</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -2025,13 +2034,13 @@
         <v>11713</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -2045,13 +2054,13 @@
         <v>-1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2065,13 +2074,13 @@
         <v>11714</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -2085,13 +2094,13 @@
         <v>11715</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -2105,13 +2114,13 @@
         <v>11716</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -2125,13 +2134,13 @@
         <v>-1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -2145,13 +2154,13 @@
         <v>11717</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2171,13 +2180,13 @@
         <v>11718</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2385,7 +2394,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2436,13 +2445,13 @@
         <v>-1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -2456,13 +2465,13 @@
         <v>-1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -2477,13 +2486,13 @@
         <v>11719</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -2497,13 +2506,13 @@
         <v>11720</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -2517,13 +2526,13 @@
         <v>-1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -2537,13 +2546,13 @@
         <v>11721</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -2557,13 +2566,13 @@
         <v>11722</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -2577,13 +2586,13 @@
         <v>-1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2597,13 +2606,13 @@
         <v>11723</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -2617,13 +2626,13 @@
         <v>11724</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -2637,13 +2646,13 @@
         <v>11725</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -2657,13 +2666,13 @@
         <v>-1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -2677,13 +2686,13 @@
         <v>11726</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2703,13 +2712,13 @@
         <v>11727</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
